--- a/_includes/Geo1370 - Nutrient Lab Data.xlsx
+++ b/_includes/Geo1370 - Nutrient Lab Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13500"/>
+    <workbookView xWindow="380" yWindow="240" windowWidth="24120" windowHeight="15380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
@@ -1713,9 +1713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2097,7 +2097,7 @@
         <v>63</v>
       </c>
       <c r="N10" s="14">
-        <v>141.69999694824219</v>
+        <v>141.69999694824199</v>
       </c>
       <c r="O10" s="14">
         <v>7.7999999999999996E-3</v>
